--- a/docs/assets/material.xlsx
+++ b/docs/assets/material.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Development\Projects\masterpg\vuex-discussion\docs\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="552" windowWidth="17352" windowHeight="7536" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="828" windowWidth="17352" windowHeight="7536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="モデル設計" sheetId="1" r:id="rId1"/>
@@ -2095,7 +2095,7 @@
       <xdr:col>48</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2108,7 +2108,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5444490" y="9193530"/>
-          <a:ext cx="1002030" cy="493395"/>
+          <a:ext cx="1002030" cy="407670"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2147,8 +2147,8 @@
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2161,7 +2161,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5444490" y="9193530"/>
-          <a:ext cx="1002030" cy="1337310"/>
+          <a:ext cx="1002030" cy="1508760"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2316,14 +2316,14 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2332,7 +2332,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6446520" y="10222230"/>
+          <a:off x="6446520" y="10393680"/>
           <a:ext cx="1504950" cy="617220"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2376,14 +2376,14 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:rowOff>40005</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2392,7 +2392,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6446520" y="9380220"/>
+          <a:off x="6446520" y="9294495"/>
           <a:ext cx="1504950" cy="613410"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2671,6 +2671,322 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="0"/>
+          <a:endCxn id="80" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7198995" y="9907905"/>
+          <a:ext cx="0" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="乗算記号 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7029450" y="10039350"/>
+          <a:ext cx="342900" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 19145"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="角丸四角形吹き出し 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8124825" y="9848850"/>
+          <a:ext cx="1428750" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -104814"/>
+            <a:gd name="adj2" fmla="val 5358"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>モジュール間の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>依存関係を取り除く</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="角丸四角形吹き出し 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505199" y="7143750"/>
+          <a:ext cx="2352675" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 53683"/>
+            <a:gd name="adj2" fmla="val 166229"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の呼び出しはロジックから行う</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（ストアからは呼び出さない）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3869,8 +4185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BR69" sqref="BR69"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="CC58" sqref="CC58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>

--- a/docs/assets/material.xlsx
+++ b/docs/assets/material.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Development\Projects\masterpg\vuex-discussion\docs\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\docs\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="828" windowWidth="17352" windowHeight="7536" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1104" windowWidth="17352" windowHeight="7536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="モデル設計" sheetId="1" r:id="rId1"/>
@@ -2483,10 +2483,10 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>ストア</a:t>
+            <a:t>   ストア</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2984,6 +2984,220 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="0"/>
+          <a:endCxn id="86" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7198995" y="8231505"/>
+          <a:ext cx="0" cy="1062990"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="乗算記号 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7029450" y="8715375"/>
+          <a:ext cx="342900" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 19145"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="角丸四角形吹き出し 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7905750" y="8572500"/>
+          <a:ext cx="1638300" cy="600074"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -86209"/>
+            <a:gd name="adj2" fmla="val -991"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>モジュールからの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼び出しを取り除く</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4186,7 +4400,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="CC58" sqref="CC58"/>
+      <selection activeCell="CF62" sqref="CF62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>

--- a/docs/assets/material.xlsx
+++ b/docs/assets/material.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1104" windowWidth="17352" windowHeight="7536" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="17352" windowHeight="7536"/>
   </bookViews>
   <sheets>
-    <sheet name="モデル設計" sheetId="1" r:id="rId1"/>
-    <sheet name="中間層" sheetId="3" r:id="rId2"/>
-    <sheet name="ロジック" sheetId="2" r:id="rId3"/>
+    <sheet name="データ管理の必要性" sheetId="4" r:id="rId1"/>
+    <sheet name="モデル設計" sheetId="1" r:id="rId2"/>
+    <sheet name="中間層" sheetId="3" r:id="rId3"/>
+    <sheet name="ロジック" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,9 +26,93 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+  <si>
+    <t>記事A</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事B</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事A-1</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事A-2</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田 太郎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト分析</t>
+    <rPh sb="3" eb="5">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広告管理</t>
+    <rPh sb="0" eb="2">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入済み</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,21 +136,153 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -74,12 +291,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -99,6 +355,876 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="角丸四角形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1272540" y="4198620"/>
+          <a:ext cx="1158240" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>ユーザー情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="角丸四角形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1432560" y="3368040"/>
+          <a:ext cx="853440" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6884"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="角丸四角形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="2644140"/>
+          <a:ext cx="3390900" cy="1478280"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1584"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1851660" y="3977640"/>
+          <a:ext cx="7620" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210050" y="4122420"/>
+          <a:ext cx="3810" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5280660" y="1973580"/>
+          <a:ext cx="716280" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13861"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="角丸四角形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="1905000"/>
+          <a:ext cx="1158240" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>ユーザー情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="1"/>
+          <a:endCxn id="31" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5006340" y="2137410"/>
+          <a:ext cx="274320" cy="5715"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="角丸四角形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3634740" y="4373880"/>
+          <a:ext cx="1158240" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>ユーザー情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="角丸四角形 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1432560" y="3368040"/>
+          <a:ext cx="853440" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6884"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="角丸四角形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="2644140"/>
+          <a:ext cx="3390900" cy="1478280"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1584"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="角丸四角形 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5280660" y="1973580"/>
+          <a:ext cx="716280" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13861"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="角丸四角形 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2987040" y="8389620"/>
+          <a:ext cx="1828800" cy="1455420"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="355600" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ストア（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Vuex</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="角丸四角形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3322320" y="9037320"/>
+          <a:ext cx="1158240" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>ユーザー情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -797,7 +1923,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3206,7 +4332,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4378,17 +5504,1722 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="K14:AR76"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD10" sqref="BD10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY60" sqref="AY60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="2" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="14" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="4"/>
+    </row>
+    <row r="15" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K15" s="5"/>
+      <c r="L15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="7"/>
+    </row>
+    <row r="16" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AN16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="7"/>
+    </row>
+    <row r="17" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="7"/>
+    </row>
+    <row r="18" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="10"/>
+    </row>
+    <row r="19" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K19" s="5"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="4"/>
+    </row>
+    <row r="20" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K20" s="5"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="7"/>
+    </row>
+    <row r="21" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K21" s="5"/>
+      <c r="L21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="7"/>
+    </row>
+    <row r="22" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K22" s="5"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="7"/>
+    </row>
+    <row r="23" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="7"/>
+    </row>
+    <row r="24" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K24" s="5"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="6"/>
+      <c r="AR24" s="7"/>
+    </row>
+    <row r="25" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K25" s="5"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="6"/>
+      <c r="AP25" s="6"/>
+      <c r="AQ25" s="6"/>
+      <c r="AR25" s="7"/>
+    </row>
+    <row r="26" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K26" s="5"/>
+      <c r="L26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="7"/>
+    </row>
+    <row r="27" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K27" s="5"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="7"/>
+    </row>
+    <row r="28" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K28" s="5"/>
+      <c r="L28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="7"/>
+    </row>
+    <row r="29" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K29" s="5"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="7"/>
+    </row>
+    <row r="30" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K30" s="5"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="6"/>
+      <c r="AR30" s="7"/>
+    </row>
+    <row r="31" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K31" s="5"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="7"/>
+    </row>
+    <row r="32" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K32" s="5"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="6"/>
+      <c r="AP32" s="6"/>
+      <c r="AQ32" s="6"/>
+      <c r="AR32" s="7"/>
+    </row>
+    <row r="33" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K33" s="5"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="6"/>
+      <c r="AQ33" s="6"/>
+      <c r="AR33" s="7"/>
+    </row>
+    <row r="34" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K34" s="5"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="6"/>
+      <c r="AR34" s="7"/>
+    </row>
+    <row r="35" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K35" s="5"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="6"/>
+      <c r="AR35" s="7"/>
+    </row>
+    <row r="36" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K36" s="8"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="9"/>
+      <c r="AK36" s="9"/>
+      <c r="AL36" s="9"/>
+      <c r="AM36" s="9"/>
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="9"/>
+      <c r="AP36" s="9"/>
+      <c r="AQ36" s="9"/>
+      <c r="AR36" s="10"/>
+    </row>
+    <row r="54" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K54" s="2"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="3"/>
+      <c r="AK54" s="3"/>
+      <c r="AL54" s="3"/>
+      <c r="AM54" s="3"/>
+      <c r="AN54" s="3"/>
+      <c r="AO54" s="3"/>
+      <c r="AP54" s="3"/>
+      <c r="AQ54" s="3"/>
+      <c r="AR54" s="4"/>
+    </row>
+    <row r="55" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K55" s="5"/>
+      <c r="L55" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="6"/>
+      <c r="AL55" s="6"/>
+      <c r="AM55" s="6"/>
+      <c r="AN55" s="6"/>
+      <c r="AO55" s="6"/>
+      <c r="AP55" s="6"/>
+      <c r="AQ55" s="6"/>
+      <c r="AR55" s="7"/>
+    </row>
+    <row r="56" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K56" s="5"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="6"/>
+      <c r="AH56" s="6"/>
+      <c r="AI56" s="6"/>
+      <c r="AJ56" s="6"/>
+      <c r="AK56" s="6"/>
+      <c r="AL56" s="6"/>
+      <c r="AN56" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO56" s="6"/>
+      <c r="AP56" s="6"/>
+      <c r="AQ56" s="6"/>
+      <c r="AR56" s="7"/>
+    </row>
+    <row r="57" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K57" s="5"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
+      <c r="AF57" s="6"/>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="6"/>
+      <c r="AI57" s="6"/>
+      <c r="AJ57" s="6"/>
+      <c r="AK57" s="6"/>
+      <c r="AL57" s="6"/>
+      <c r="AM57" s="6"/>
+      <c r="AN57" s="6"/>
+      <c r="AO57" s="6"/>
+      <c r="AP57" s="6"/>
+      <c r="AQ57" s="6"/>
+      <c r="AR57" s="7"/>
+    </row>
+    <row r="58" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K58" s="5"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="9"/>
+      <c r="AF58" s="9"/>
+      <c r="AG58" s="9"/>
+      <c r="AH58" s="9"/>
+      <c r="AI58" s="9"/>
+      <c r="AJ58" s="9"/>
+      <c r="AK58" s="9"/>
+      <c r="AL58" s="9"/>
+      <c r="AM58" s="9"/>
+      <c r="AN58" s="9"/>
+      <c r="AO58" s="9"/>
+      <c r="AP58" s="9"/>
+      <c r="AQ58" s="9"/>
+      <c r="AR58" s="10"/>
+    </row>
+    <row r="59" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K59" s="5"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="3"/>
+      <c r="AH59" s="3"/>
+      <c r="AI59" s="3"/>
+      <c r="AJ59" s="3"/>
+      <c r="AK59" s="3"/>
+      <c r="AL59" s="3"/>
+      <c r="AM59" s="3"/>
+      <c r="AN59" s="3"/>
+      <c r="AO59" s="3"/>
+      <c r="AP59" s="3"/>
+      <c r="AQ59" s="3"/>
+      <c r="AR59" s="4"/>
+    </row>
+    <row r="60" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K60" s="5"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="6"/>
+      <c r="AF60" s="6"/>
+      <c r="AG60" s="6"/>
+      <c r="AH60" s="6"/>
+      <c r="AI60" s="6"/>
+      <c r="AJ60" s="6"/>
+      <c r="AK60" s="6"/>
+      <c r="AL60" s="6"/>
+      <c r="AM60" s="6"/>
+      <c r="AN60" s="6"/>
+      <c r="AO60" s="6"/>
+      <c r="AP60" s="6"/>
+      <c r="AQ60" s="6"/>
+      <c r="AR60" s="7"/>
+    </row>
+    <row r="61" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K61" s="5"/>
+      <c r="L61" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="6"/>
+      <c r="AF61" s="6"/>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="6"/>
+      <c r="AI61" s="6"/>
+      <c r="AJ61" s="6"/>
+      <c r="AK61" s="6"/>
+      <c r="AL61" s="6"/>
+      <c r="AM61" s="6"/>
+      <c r="AN61" s="6"/>
+      <c r="AO61" s="6"/>
+      <c r="AP61" s="6"/>
+      <c r="AQ61" s="6"/>
+      <c r="AR61" s="7"/>
+    </row>
+    <row r="62" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K62" s="5"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="6"/>
+      <c r="AB62" s="6"/>
+      <c r="AC62" s="6"/>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="6"/>
+      <c r="AF62" s="6"/>
+      <c r="AG62" s="6"/>
+      <c r="AH62" s="6"/>
+      <c r="AI62" s="6"/>
+      <c r="AJ62" s="6"/>
+      <c r="AK62" s="6"/>
+      <c r="AL62" s="6"/>
+      <c r="AM62" s="6"/>
+      <c r="AN62" s="6"/>
+      <c r="AO62" s="6"/>
+      <c r="AP62" s="6"/>
+      <c r="AQ62" s="6"/>
+      <c r="AR62" s="7"/>
+    </row>
+    <row r="63" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K63" s="5"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6"/>
+      <c r="AF63" s="6"/>
+      <c r="AG63" s="6"/>
+      <c r="AH63" s="6"/>
+      <c r="AI63" s="6"/>
+      <c r="AJ63" s="6"/>
+      <c r="AK63" s="6"/>
+      <c r="AL63" s="6"/>
+      <c r="AM63" s="6"/>
+      <c r="AN63" s="6"/>
+      <c r="AO63" s="6"/>
+      <c r="AP63" s="6"/>
+      <c r="AQ63" s="6"/>
+      <c r="AR63" s="7"/>
+    </row>
+    <row r="64" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K64" s="5"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="6"/>
+      <c r="AI64" s="6"/>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="6"/>
+      <c r="AL64" s="6"/>
+      <c r="AM64" s="6"/>
+      <c r="AN64" s="6"/>
+      <c r="AO64" s="6"/>
+      <c r="AP64" s="6"/>
+      <c r="AQ64" s="6"/>
+      <c r="AR64" s="7"/>
+    </row>
+    <row r="65" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K65" s="5"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA65" s="13"/>
+      <c r="AB65" s="13"/>
+      <c r="AC65" s="14"/>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
+      <c r="AF65" s="6"/>
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="6"/>
+      <c r="AI65" s="6"/>
+      <c r="AJ65" s="6"/>
+      <c r="AK65" s="6"/>
+      <c r="AL65" s="6"/>
+      <c r="AM65" s="6"/>
+      <c r="AN65" s="6"/>
+      <c r="AO65" s="6"/>
+      <c r="AP65" s="6"/>
+      <c r="AQ65" s="6"/>
+      <c r="AR65" s="7"/>
+    </row>
+    <row r="66" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K66" s="5"/>
+      <c r="L66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+      <c r="AF66" s="6"/>
+      <c r="AG66" s="6"/>
+      <c r="AH66" s="6"/>
+      <c r="AI66" s="6"/>
+      <c r="AJ66" s="6"/>
+      <c r="AK66" s="6"/>
+      <c r="AL66" s="6"/>
+      <c r="AM66" s="6"/>
+      <c r="AN66" s="6"/>
+      <c r="AO66" s="6"/>
+      <c r="AP66" s="6"/>
+      <c r="AQ66" s="6"/>
+      <c r="AR66" s="7"/>
+    </row>
+    <row r="67" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K67" s="5"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA67" s="13"/>
+      <c r="AB67" s="13"/>
+      <c r="AC67" s="14"/>
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="6"/>
+      <c r="AF67" s="6"/>
+      <c r="AG67" s="6"/>
+      <c r="AH67" s="6"/>
+      <c r="AI67" s="6"/>
+      <c r="AJ67" s="6"/>
+      <c r="AK67" s="6"/>
+      <c r="AL67" s="6"/>
+      <c r="AM67" s="6"/>
+      <c r="AN67" s="6"/>
+      <c r="AO67" s="6"/>
+      <c r="AP67" s="6"/>
+      <c r="AQ67" s="6"/>
+      <c r="AR67" s="7"/>
+    </row>
+    <row r="68" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K68" s="5"/>
+      <c r="L68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
+      <c r="AA68" s="6"/>
+      <c r="AB68" s="6"/>
+      <c r="AC68" s="6"/>
+      <c r="AD68" s="6"/>
+      <c r="AE68" s="6"/>
+      <c r="AF68" s="6"/>
+      <c r="AG68" s="6"/>
+      <c r="AH68" s="6"/>
+      <c r="AI68" s="6"/>
+      <c r="AJ68" s="6"/>
+      <c r="AK68" s="6"/>
+      <c r="AL68" s="6"/>
+      <c r="AM68" s="6"/>
+      <c r="AN68" s="6"/>
+      <c r="AO68" s="6"/>
+      <c r="AP68" s="6"/>
+      <c r="AQ68" s="6"/>
+      <c r="AR68" s="7"/>
+    </row>
+    <row r="69" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K69" s="5"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
+      <c r="AA69" s="6"/>
+      <c r="AB69" s="6"/>
+      <c r="AC69" s="6"/>
+      <c r="AD69" s="6"/>
+      <c r="AE69" s="6"/>
+      <c r="AF69" s="6"/>
+      <c r="AG69" s="6"/>
+      <c r="AH69" s="6"/>
+      <c r="AI69" s="6"/>
+      <c r="AJ69" s="6"/>
+      <c r="AK69" s="6"/>
+      <c r="AL69" s="6"/>
+      <c r="AM69" s="6"/>
+      <c r="AN69" s="6"/>
+      <c r="AO69" s="6"/>
+      <c r="AP69" s="6"/>
+      <c r="AQ69" s="6"/>
+      <c r="AR69" s="7"/>
+    </row>
+    <row r="70" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K70" s="5"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="6"/>
+      <c r="AA70" s="6"/>
+      <c r="AB70" s="6"/>
+      <c r="AC70" s="6"/>
+      <c r="AD70" s="6"/>
+      <c r="AE70" s="6"/>
+      <c r="AF70" s="6"/>
+      <c r="AG70" s="6"/>
+      <c r="AH70" s="6"/>
+      <c r="AI70" s="6"/>
+      <c r="AJ70" s="6"/>
+      <c r="AK70" s="6"/>
+      <c r="AL70" s="6"/>
+      <c r="AM70" s="6"/>
+      <c r="AN70" s="6"/>
+      <c r="AO70" s="6"/>
+      <c r="AP70" s="6"/>
+      <c r="AQ70" s="6"/>
+      <c r="AR70" s="7"/>
+    </row>
+    <row r="71" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K71" s="5"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
+      <c r="AA71" s="6"/>
+      <c r="AB71" s="6"/>
+      <c r="AC71" s="6"/>
+      <c r="AD71" s="6"/>
+      <c r="AE71" s="6"/>
+      <c r="AF71" s="6"/>
+      <c r="AG71" s="6"/>
+      <c r="AH71" s="6"/>
+      <c r="AI71" s="6"/>
+      <c r="AJ71" s="6"/>
+      <c r="AK71" s="6"/>
+      <c r="AL71" s="6"/>
+      <c r="AM71" s="6"/>
+      <c r="AN71" s="6"/>
+      <c r="AO71" s="6"/>
+      <c r="AP71" s="6"/>
+      <c r="AQ71" s="6"/>
+      <c r="AR71" s="7"/>
+    </row>
+    <row r="72" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K72" s="5"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6"/>
+      <c r="AA72" s="6"/>
+      <c r="AB72" s="6"/>
+      <c r="AC72" s="6"/>
+      <c r="AD72" s="6"/>
+      <c r="AE72" s="6"/>
+      <c r="AF72" s="6"/>
+      <c r="AG72" s="6"/>
+      <c r="AH72" s="6"/>
+      <c r="AI72" s="6"/>
+      <c r="AJ72" s="6"/>
+      <c r="AK72" s="6"/>
+      <c r="AL72" s="6"/>
+      <c r="AM72" s="6"/>
+      <c r="AN72" s="6"/>
+      <c r="AO72" s="6"/>
+      <c r="AP72" s="6"/>
+      <c r="AQ72" s="6"/>
+      <c r="AR72" s="7"/>
+    </row>
+    <row r="73" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K73" s="5"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+      <c r="AA73" s="6"/>
+      <c r="AB73" s="6"/>
+      <c r="AC73" s="6"/>
+      <c r="AD73" s="6"/>
+      <c r="AE73" s="6"/>
+      <c r="AF73" s="6"/>
+      <c r="AG73" s="6"/>
+      <c r="AH73" s="6"/>
+      <c r="AI73" s="6"/>
+      <c r="AJ73" s="6"/>
+      <c r="AK73" s="6"/>
+      <c r="AL73" s="6"/>
+      <c r="AM73" s="6"/>
+      <c r="AN73" s="6"/>
+      <c r="AO73" s="6"/>
+      <c r="AP73" s="6"/>
+      <c r="AQ73" s="6"/>
+      <c r="AR73" s="7"/>
+    </row>
+    <row r="74" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K74" s="5"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+      <c r="AA74" s="6"/>
+      <c r="AB74" s="6"/>
+      <c r="AC74" s="6"/>
+      <c r="AD74" s="6"/>
+      <c r="AE74" s="6"/>
+      <c r="AF74" s="6"/>
+      <c r="AG74" s="6"/>
+      <c r="AH74" s="6"/>
+      <c r="AI74" s="6"/>
+      <c r="AJ74" s="6"/>
+      <c r="AK74" s="6"/>
+      <c r="AL74" s="6"/>
+      <c r="AM74" s="6"/>
+      <c r="AN74" s="6"/>
+      <c r="AO74" s="6"/>
+      <c r="AP74" s="6"/>
+      <c r="AQ74" s="6"/>
+      <c r="AR74" s="7"/>
+    </row>
+    <row r="75" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K75" s="5"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
+      <c r="AA75" s="6"/>
+      <c r="AB75" s="6"/>
+      <c r="AC75" s="6"/>
+      <c r="AD75" s="6"/>
+      <c r="AE75" s="6"/>
+      <c r="AF75" s="6"/>
+      <c r="AG75" s="6"/>
+      <c r="AH75" s="6"/>
+      <c r="AI75" s="6"/>
+      <c r="AJ75" s="6"/>
+      <c r="AK75" s="6"/>
+      <c r="AL75" s="6"/>
+      <c r="AM75" s="6"/>
+      <c r="AN75" s="6"/>
+      <c r="AO75" s="6"/>
+      <c r="AP75" s="6"/>
+      <c r="AQ75" s="6"/>
+      <c r="AR75" s="7"/>
+    </row>
+    <row r="76" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="K76" s="8"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
+      <c r="AB76" s="9"/>
+      <c r="AC76" s="9"/>
+      <c r="AD76" s="9"/>
+      <c r="AE76" s="9"/>
+      <c r="AF76" s="9"/>
+      <c r="AG76" s="9"/>
+      <c r="AH76" s="9"/>
+      <c r="AI76" s="9"/>
+      <c r="AJ76" s="9"/>
+      <c r="AK76" s="9"/>
+      <c r="AL76" s="9"/>
+      <c r="AM76" s="9"/>
+      <c r="AN76" s="9"/>
+      <c r="AO76" s="9"/>
+      <c r="AP76" s="9"/>
+      <c r="AQ76" s="9"/>
+      <c r="AR76" s="10"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4399,8 +7230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="CF62" sqref="CF62"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X44" sqref="X44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
@@ -4418,6 +7249,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="CF62" sqref="CF62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="2" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
